--- a/biology/Botanique/Beurré_Durondeau/Beurré_Durondeau.xlsx
+++ b/biology/Botanique/Beurré_Durondeau/Beurré_Durondeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré Durondeau est une variété de poire, de type « beurré », obtenue en Belgique, au début du XIXe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Durondeau ;
-De Tongre[1].</t>
+De Tongre.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Louis Durondeau a obtenu cette poire en 1811, à Tongre-Saint-Martin, près de Tournai, en Belgique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Louis Durondeau a obtenu cette poire en 1811, à Tongre-Saint-Martin, près de Tournai, en Belgique.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de vigueur moyenne ; sa production se révèle abondante en conduite pyramidale.
-Résistante à la tavelure[3] (Venturia pyrina) et au feu bactérien (Erwinia amylovora), cette variété est appréciée dans le Nord de la France et en Belgique[1].
+Résistante à la tavelure (Venturia pyrina) et au feu bactérien (Erwinia amylovora), cette variété est appréciée dans le Nord de la France et en Belgique.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,6 +652,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -639,7 +661,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -658,6 +680,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -665,7 +689,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -683,15 +707,12 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Le code PLU du fruit est 3018.
-Forme et calibre
-Les fruits vont de moyens à très gros ; ils sont souvent bosselés.
-Chair
-Date de récolte
-Époque naturelle de consommation
-Conservation</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le code PLU du fruit est 3018.
+</t>
         </is>
       </c>
     </row>
@@ -701,7 +722,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Durondeau</t>
+          <t>Beurré_Durondeau</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -716,10 +737,49 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Forme et calibre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits vont de moyens à très gros ; ils sont souvent bosselés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Beurré_Durondeau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Durondeau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
